--- a/Corte de Apelaciones de Arica/1-2013303#4#1-C-ingresos-2020-12.xlsx
+++ b/Corte de Apelaciones de Arica/1-2013303#4#1-C-ingresos-2020-12.xlsx
@@ -52,12 +52,12 @@
     <t>Pesos, Cobro De</t>
   </si>
   <si>
+    <t>Expropiación, Consignación Monto Provisorio Art.17 D.l.2186</t>
+  </si>
+  <si>
     <t>Minera, Manifestación (Concesión Para Explotación)</t>
   </si>
   <si>
-    <t>Expropiación, Consignación Monto Provisorio Art.17 D.l.2186</t>
-  </si>
-  <si>
     <t>Oposición Regularización Posesión D.l. 2.695</t>
   </si>
   <si>
@@ -67,27 +67,27 @@
     <t>Factura, Notificación De</t>
   </si>
   <si>
+    <t>Vehículos Motorizados, Inscripciones En Registro</t>
+  </si>
+  <si>
+    <t>Precario, Inc. 2º Art. 2.195 C.c</t>
+  </si>
+  <si>
     <t>Nombre, Autorización Cambio De</t>
   </si>
   <si>
-    <t>Precario, Inc. 2º Art. 2.195 C.c</t>
+    <t>Perjuicios, Indemnización De</t>
+  </si>
+  <si>
+    <t>Arrendam.terminación Inmediata Por No Pago Rentas O Reconven</t>
+  </si>
+  <si>
+    <t>Otros Sumarios</t>
   </si>
   <si>
     <t>Otros Ordinarios</t>
   </si>
   <si>
-    <t>Vehículos Motorizados, Inscripciones En Registro</t>
-  </si>
-  <si>
-    <t>Otros Sumarios</t>
-  </si>
-  <si>
-    <t>Arrendam.terminación Inmediata Por No Pago Rentas O Reconven</t>
-  </si>
-  <si>
-    <t>Perjuicios, Indemnización De</t>
-  </si>
-  <si>
     <t>Obra Ruinosa, Denuncia De</t>
   </si>
   <si>
@@ -109,10 +109,10 @@
     <t>Arrendamiento,Restitución Por Expiración Tiempo Estipulado</t>
   </si>
   <si>
+    <t>Arbitro Y Derivados, Designacion De</t>
+  </si>
+  <si>
     <t>Reconocimiento Firma,Citación Y Confesión De Deuda</t>
-  </si>
-  <si>
-    <t>Arbitro Y Derivados, Designacion De</t>
   </si>
   <si>
     <t>Demencia C/Certificado Compin, Interdicción Por</t>
